--- a/data/survival/Westcott/B_survival_07242024.xlsx
+++ b/data/survival/Westcott/B_survival_07242024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824C7EB-B703-B441-803A-679D7969E54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4454B0F2-2A3A-2241-A626-ECE42FE44319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{CA941532-24D2-184F-8B30-D5633C401736}"/>
   </bookViews>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCF0E53-B26D-5F4D-A696-5BB849B2395F}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1893,7 +1893,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -1928,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="F43" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -1960,7 +1960,7 @@
         <v>30</v>
       </c>
       <c r="F44" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G44" t="s">
         <v>15</v>
@@ -1995,7 +1995,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
@@ -2027,7 +2027,7 @@
         <v>30</v>
       </c>
       <c r="F46" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -2059,7 +2059,7 @@
         <v>30</v>
       </c>
       <c r="F47" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -2094,7 +2094,7 @@
         <v>30</v>
       </c>
       <c r="F48" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2129,7 +2129,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -2161,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="F50" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
@@ -2193,7 +2193,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="1">
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
